--- a/Excel/Check_Values_WorkBooks/Book2.xlsx
+++ b/Excel/Check_Values_WorkBooks/Book2.xlsx
@@ -15,24 +15,20 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -365,32 +361,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -405,7 +391,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -418,7 +404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
